--- a/TUGAS/(2) SEMESTER 2/(4) PENGANTAR AKUNTANSI/(207)/(4207) Formatif Akuntansi.xlsx
+++ b/TUGAS/(2) SEMESTER 2/(4) PENGANTAR AKUNTANSI/(207)/(4207) Formatif Akuntansi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA KULIAH\TUGAS\(2) SEMESTER 2\(4) PENGANTAR AKUNTANSI\(207)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62A1700-4713-4583-B406-9B265B227F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964D4A4-EE2C-4A68-B4AF-C52E0F906974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -283,35 +283,15 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -324,7 +304,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,389 +623,384 @@
   <sheetData>
     <row r="1" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="2">
+      <c r="C6" s="18"/>
+      <c r="D6" s="1">
         <v>8540000</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="G6" s="14" t="s">
+      <c r="E6" s="2"/>
+      <c r="G6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="2">
+      <c r="H6" s="18"/>
+      <c r="I6" s="1">
         <v>8540000</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="4">
+      <c r="C7" s="11"/>
+      <c r="D7" s="3">
         <v>3600000</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="4"/>
+      <c r="G7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="4">
+      <c r="H7" s="11"/>
+      <c r="I7" s="3">
         <v>3600000</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="4">
+      <c r="C8" s="11"/>
+      <c r="D8" s="3">
         <v>1784000</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="4"/>
+      <c r="G8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="4">
+      <c r="H8" s="11"/>
+      <c r="I8" s="3">
         <v>1964000</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="4">
+      <c r="C9" s="11"/>
+      <c r="D9" s="3">
         <v>360000</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="4"/>
+      <c r="G9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="4">
+      <c r="H9" s="11"/>
+      <c r="I9" s="3">
         <v>360000</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
+      <c r="C10" s="11"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4">
         <v>5174000</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5">
+      <c r="H10" s="11"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4">
         <v>5174000</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="4">
+      <c r="C11" s="11"/>
+      <c r="D11" s="3">
         <v>3300000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>10000000</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="4">
+      <c r="H11" s="11"/>
+      <c r="I11" s="3">
         <v>3300000</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>9420000</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="16" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="4">
+      <c r="C13" s="11"/>
+      <c r="D13" s="3">
         <v>1000000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>32810000</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="4">
+      <c r="H13" s="11"/>
+      <c r="I13" s="3">
         <v>1000000</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>32810000</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
+      <c r="C14" s="11"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4">
         <v>920000</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5">
+      <c r="H14" s="11"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4">
         <v>920000</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="16" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="4">
+      <c r="C16" s="11"/>
+      <c r="D16" s="3">
         <v>14400000</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="G16" s="16" t="s">
+      <c r="E16" s="4"/>
+      <c r="G16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="4">
+      <c r="H16" s="11"/>
+      <c r="I16" s="3">
         <v>12600000</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="4">
+      <c r="C17" s="11"/>
+      <c r="D17" s="3">
         <v>7600000</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="G17" s="16" t="s">
+      <c r="E17" s="4"/>
+      <c r="G17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="4">
+      <c r="H17" s="11"/>
+      <c r="I17" s="3">
         <v>1800000</v>
       </c>
-      <c r="J17" s="20"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="4">
+      <c r="C18" s="11"/>
+      <c r="D18" s="3">
         <v>4100000</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="4"/>
+      <c r="G18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="4">
+      <c r="H18" s="11"/>
+      <c r="I18" s="3">
         <v>7600000</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="4">
+      <c r="C19" s="11"/>
+      <c r="D19" s="3">
         <v>1480000</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="G19" s="16" t="s">
+      <c r="E19" s="4"/>
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="4">
+      <c r="H19" s="11"/>
+      <c r="I19" s="3">
         <v>4100000</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="4">
+      <c r="C20" s="11"/>
+      <c r="D20" s="3">
         <v>1290000</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="G20" s="16" t="s">
+      <c r="E20" s="4"/>
+      <c r="G20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="4">
+      <c r="H20" s="11"/>
+      <c r="I20" s="3">
         <v>1480000</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="10">
+      <c r="C21" s="13"/>
+      <c r="D21" s="7">
         <v>690000</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="G21" s="16" t="s">
+      <c r="E21" s="8"/>
+      <c r="G21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="4">
+      <c r="H21" s="11"/>
+      <c r="I21" s="3">
         <v>1290000</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8">
+      <c r="C22" s="20"/>
+      <c r="D22" s="5">
         <f>SUM(D6:D21)</f>
         <v>48144000</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <f>SUM(E6:E21)</f>
         <v>48904000</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="10">
+      <c r="H22" s="13"/>
+      <c r="I22" s="7">
         <v>690000</v>
       </c>
-      <c r="J22" s="11"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="8">
+      <c r="H23" s="15"/>
+      <c r="I23" s="5">
         <f>SUM(I6:I22)</f>
         <v>48324000</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="6">
         <f>SUM(J6:J22)</f>
         <v>48324000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
@@ -1022,16 +1017,21 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
